--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AR2_50_6_matched_error_tables_T55.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AR2_50_6_matched_error_tables_T55.xlsx
@@ -441,22 +441,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.1200458430705795</v>
+        <v>-0.04471486901827749</v>
       </c>
       <c r="C2">
-        <v>1.538233542422051</v>
+        <v>1.538188180770143</v>
       </c>
       <c r="D2">
-        <v>9.128457798383952</v>
+        <v>8.820941227871542</v>
       </c>
       <c r="E2">
-        <v>3.02133377804968</v>
+        <v>2.970006940711005</v>
       </c>
       <c r="F2">
-        <v>3.093501112597618</v>
+        <v>3.039554476939365</v>
       </c>
       <c r="G2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -464,22 +464,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.1291328826468522</v>
+        <v>0.5702471346781629</v>
       </c>
       <c r="C3">
-        <v>1.848922420257954</v>
+        <v>2.208141932403022</v>
       </c>
       <c r="D3">
-        <v>16.09798641173457</v>
+        <v>19.53235185232473</v>
       </c>
       <c r="E3">
-        <v>4.012229606058777</v>
+        <v>4.419542041017907</v>
       </c>
       <c r="F3">
-        <v>4.114328123234176</v>
+        <v>4.490827157729617</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -487,22 +487,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.5961157838969424</v>
+        <v>-0.9928311212697511</v>
       </c>
       <c r="C4">
-        <v>1.124271042381528</v>
+        <v>1.494578616830107</v>
       </c>
       <c r="D4">
-        <v>5.194711351325698</v>
+        <v>8.573381211930261</v>
       </c>
       <c r="E4">
-        <v>2.279190942270019</v>
+        <v>2.928033676706991</v>
       </c>
       <c r="F4">
-        <v>2.260135064139825</v>
+        <v>2.826131366665581</v>
       </c>
       <c r="G4">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -510,22 +510,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.06220899855231105</v>
+        <v>0.04445486954785217</v>
       </c>
       <c r="C5">
-        <v>0.5223059091562471</v>
+        <v>0.5092960956497293</v>
       </c>
       <c r="D5">
-        <v>0.4977790395167418</v>
+        <v>0.4755638644454255</v>
       </c>
       <c r="E5">
-        <v>0.7055345771234333</v>
+        <v>0.689611386539858</v>
       </c>
       <c r="F5">
-        <v>0.7231615001580982</v>
+        <v>0.7070346899928552</v>
       </c>
       <c r="G5">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -533,22 +533,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01966797426565152</v>
+        <v>0.125870100697262</v>
       </c>
       <c r="C6">
-        <v>0.8205338538625323</v>
+        <v>0.8822434314276495</v>
       </c>
       <c r="D6">
-        <v>1.886557701549128</v>
+        <v>1.988968042097669</v>
       </c>
       <c r="E6">
-        <v>1.373520186072679</v>
+        <v>1.410307782754413</v>
       </c>
       <c r="F6">
-        <v>1.415647043531155</v>
+        <v>1.445403376982404</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -556,22 +556,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.03042008142082855</v>
+        <v>-0.115663227681736</v>
       </c>
       <c r="C7">
-        <v>0.6705556618063352</v>
+        <v>0.7181437739269187</v>
       </c>
       <c r="D7">
-        <v>1.336409350106393</v>
+        <v>1.386566374226969</v>
       </c>
       <c r="E7">
-        <v>1.156031725389227</v>
+        <v>1.177525530180543</v>
       </c>
       <c r="F7">
-        <v>1.19353099387333</v>
+        <v>1.207895966749015</v>
       </c>
       <c r="G7">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -579,22 +579,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.1651998030318636</v>
+        <v>0.05244267050036469</v>
       </c>
       <c r="C8">
-        <v>0.4626866166356229</v>
+        <v>0.5335846545226226</v>
       </c>
       <c r="D8">
-        <v>0.3623456080572319</v>
+        <v>0.4934662843964752</v>
       </c>
       <c r="E8">
-        <v>0.6019514997549487</v>
+        <v>0.7024715541546683</v>
       </c>
       <c r="F8">
-        <v>0.6006896590200118</v>
+        <v>0.7250980603934585</v>
       </c>
       <c r="G8">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
